--- a/biology/Botanique/Afraegle/Afraegle.xlsx
+++ b/biology/Botanique/Afraegle/Afraegle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Afraegle est un genre de plantes à fleurs de la famille des Rutacées, originaire de l'Afrique de l'Ouest.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afraegle est à l'origine une section du genre Balsamocitrus décrit par Walter Tennyson Swingle en 1912. Adolf Engler en fait un genre propre en 1915[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afraegle est à l'origine une section du genre Balsamocitrus décrit par Walter Tennyson Swingle en 1912. Adolf Engler en fait un genre propre en 1915.
 L'espèce type est Afraegle paniculata.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est originaire de l'Afrique de l'Ouest et de l'ouest de l'Afrique centrale[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est originaire de l'Afrique de l'Ouest et de l'ouest de l'Afrique centrale.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF en 2024, le genre comprend quatre espèces[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF en 2024, le genre comprend quatre espèces :
 Afraegle asso Engl.
 Afraegle gabonensis (Swingle) Engl.
 Afraegle mildbraedii Engl.
